--- a/Data/Execution.xlsx
+++ b/Data/Execution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataEngAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1060EE50-784F-48FF-907A-6806998C4C59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57761B3-CEFB-4E46-99D3-71189F4AACA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>select count(*) from table</t>
   </si>
   <si>
-    <t>SELECT Age,  Gender,  Country  from table groupBy Age, Gender, Country HAVING COUNT(*) &gt; 1</t>
-  </si>
-  <si>
     <t>Source\Datatable.csv</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Target\Dataxml.csv</t>
+  </si>
+  <si>
+    <t>"""SELECT Age,  Gender,  Country  from table groupBy Age, Gender, Country HAVING COUNT(*) &gt; 1"""</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,19 +510,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -536,19 +536,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -559,19 +559,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -580,24 +580,24 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -608,19 +608,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>

--- a/Data/Execution.xlsx
+++ b/Data/Execution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataEngAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57761B3-CEFB-4E46-99D3-71189F4AACA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C512B29-F5EB-4469-A481-9DEDE14CF449}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,7 +510,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>

--- a/Data/Execution.xlsx
+++ b/Data/Execution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataEngAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C512B29-F5EB-4469-A481-9DEDE14CF449}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE0A3C-DFD6-4EFC-9BB3-BDFF185A0737}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>Target\Dataxml.csv</t>
   </si>
   <si>
-    <t>"""SELECT Age,  Gender,  Country  from table groupBy Age, Gender, Country HAVING COUNT(*) &gt; 1"""</t>
+    <t>SELECT Age,  Gender,  Country  from table group By Age, Gender, Country HAVING COUNT(*) &gt; 1</t>
   </si>
 </sst>
 </file>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +536,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>

--- a/Data/Execution.xlsx
+++ b/Data/Execution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataEngAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE0A3C-DFD6-4EFC-9BB3-BDFF185A0737}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42781216-25D8-49E9-AD90-6DE2D7870B4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>Execution Status</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>SELECT Age,  Gender,  Country  from table group By Age, Gender, Country HAVING COUNT(*) &gt; 1</t>
+  </si>
+  <si>
+    <t>SchemaDF</t>
+  </si>
+  <si>
+    <t>TC04_TableVerifyAllCellData</t>
+  </si>
+  <si>
+    <t>CompareTable</t>
+  </si>
+  <si>
+    <t>Source\FL_insurance_sample.csv</t>
+  </si>
+  <si>
+    <t>Target\FL_insurance_sample.csv</t>
   </si>
 </sst>
 </file>
@@ -162,12 +177,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,15 +190,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,25 +496,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="38.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" customWidth="1"/>
-    <col min="5" max="5" width="40.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="127" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="127" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,183 +542,247 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Data/Execution.xlsx
+++ b/Data/Execution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataEngAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42781216-25D8-49E9-AD90-6DE2D7870B4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717644C6-8CC0-4CAE-8D5B-BB84E0B21F16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,7 +510,7 @@
     <col min="4" max="4" width="12.08984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.08984375" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" style="3" customWidth="1"/>
     <col min="8" max="8" width="127" style="3" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="3"/>
   </cols>
@@ -543,7 +543,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>

--- a/Data/Execution.xlsx
+++ b/Data/Execution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataEngAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717644C6-8CC0-4CAE-8D5B-BB84E0B21F16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC96133-D5BD-4959-8B4A-90DAC50EA927}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>Execution Status</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Target\FL_insurance_sample.csv</t>
+  </si>
+  <si>
+    <t>select * from table except select * from table1</t>
   </si>
 </sst>
 </file>
@@ -499,14 +502,14 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.08984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.08984375" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="3" customWidth="1"/>
@@ -548,14 +551,14 @@
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>25</v>
@@ -660,6 +663,9 @@
       </c>
       <c r="G6" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
